--- a/firefox_testing/缺陷报告模板.xlsx
+++ b/firefox_testing/缺陷报告模板.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\github\testing\Firefox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VM_Shared\PLCT\Tarsier-Interncat\firefox_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE3A468-BBD0-4851-AD7D-F925DA66C2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10476"/>
   </bookViews>
   <sheets>
     <sheet name="缺陷报告" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="95">
   <si>
     <t>项目名称：</t>
   </si>
@@ -203,13 +202,176 @@
   </si>
   <si>
     <t>openEuler 22.03_LTS RISC-V版本Firefox特性测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不完整的html5支持-Speech Synthesis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该build不支持html5的Speech Synthesis特性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>功能性</t>
+  </si>
+  <si>
+    <t>TC00017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/A</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>不支持Speech</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Synthesis</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见 https://wicg.github.io/speech-api/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该build不支持html5的Speech Synthesis特性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不完整的html5支持-Speech Recognition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持Speech Recognition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC00017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不完整的html5支持-File API: Directories and System</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该build不支持html5的File API: Directories and System特性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持File API: Directories and System</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见 https://www.w3.org/TR/file-system-api/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不完整的html5支持-WebRTC 1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该build不支持html5的WebRTC 1.0特性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持WebRTC 1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见 https://www.w3.org/TR/webrtc/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC00017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不完整的html5支持-ObjectRTC API for WebRTC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该build不支持html5的ObjectRTC API for WebRTC特性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持ObjectRTC API for WebRTC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不完整的html5支持-Data channel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该build不支持html5的Data channel特性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持Data channel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不完整的html5支持-Access the webcam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该build不支持html5的Access the webcam特性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持Access the webcam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见 https://w3c.github.io/mediacapture-main/getusermedia.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -277,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -302,6 +464,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -612,89 +780,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U2"/>
+    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="14.7265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.90625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.08984375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.6328125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.6328125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.08984375" style="2" customWidth="1"/>
-    <col min="14" max="15" width="12" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.6328125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="11.453125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-    </row>
-    <row r="2" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-    </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -750,159 +914,383 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>44779</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>44779</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>44779</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>44779</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>44779</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>44779</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="C10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>44779</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -1587,24 +1975,24 @@
       <c r="R41" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:R41" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:R41"/>
   <mergeCells count="2">
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="B2:U2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
       <formula1>"致命,严重,一般,轻微,建议"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>"功能性,兼容性,信息安全性,可靠性,易用性,性能效率,可移植性,维护性,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/firefox_testing/缺陷报告模板.xlsx
+++ b/firefox_testing/缺陷报告模板.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10476"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="缺陷报告" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="100">
   <si>
     <t>项目名称：</t>
   </si>
@@ -365,6 +365,38 @@
   </si>
   <si>
     <t>详见 https://w3c.github.io/mediacapture-main/getusermedia.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC00002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>无法使用dnf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>卸载Firefox</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法使用dnf卸载Firefox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容性</t>
+  </si>
+  <si>
+    <t>见用例测试图片</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -385,6 +417,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -783,22 +816,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11:R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="13" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="2"/>
@@ -914,7 +947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="42" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>21</v>
@@ -968,7 +1001,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="42" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>22</v>
@@ -1022,7 +1055,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="56" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>23</v>
@@ -1076,7 +1109,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
         <v>24</v>
@@ -1130,7 +1163,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>25</v>
@@ -1184,7 +1217,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="42" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
         <v>26</v>
@@ -1238,7 +1271,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="42" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
         <v>27</v>
@@ -1292,27 +1325,57 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="C11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="P11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>44779</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
